--- a/www/IndicatorsPerCountry/Pakistan_Biodiversitynaturalness_TerritorialRef_1971_2012_CCode_586.xlsx
+++ b/www/IndicatorsPerCountry/Pakistan_Biodiversitynaturalness_TerritorialRef_1971_2012_CCode_586.xlsx
@@ -168,13 +168,13 @@
     <t>Klein Goldewijk, Kees (2015). Biodiversity - naturalness. http://hdl.handle.net/10622/VCTVKE, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_VCTVKE.xml</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_VCTVKE.xml</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_VCTVKE.ris</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_VCTVKE.ris</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_VCTVKE.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_VCTVKE.bib</t>
   </si>
 </sst>
 </file>
